--- a/mbs-perturbation/mega/svm/nearmiss/mega-svm-poly-nearmiss-results.xlsx
+++ b/mbs-perturbation/mega/svm/nearmiss/mega-svm-poly-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.775</v>
+        <v>0.2878787878787879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.919704861111111</v>
+        <v>0.2960069444444445</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C3" t="n">
-        <v>0.425531914893617</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5970149253731344</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9968971631205674</v>
+        <v>0.8047429078014184</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2127659574468085</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3448275862068965</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9782801418439716</v>
+        <v>0.8679078014184398</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9827127659574467</v>
+        <v>0.8936170212765957</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6722074468085107</v>
+        <v>0.5401152482269503</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9368181818181818</v>
+        <v>0.7585281385281386</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3109929078014185</v>
+        <v>0.3454787234042553</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4217725222311823</v>
+        <v>0.4032070707070707</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9099604757683215</v>
+        <v>0.6804779846335698</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/svm/nearmiss/mega-svm-poly-nearmiss-results.xlsx
+++ b/mbs-perturbation/mega/svm/nearmiss/mega-svm-poly-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2878787878787879</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.4523809523809523</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2960069444444445</v>
+        <v>0.3995771670190275</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7446808510638298</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8047429078014184</v>
+        <v>0.5243128964059197</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1702127659574468</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2909090909090909</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8679078014184398</v>
+        <v>0.8374735729386892</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.748678646934461</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.125</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2181818181818182</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5401152482269503</v>
+        <v>0.9177934018388317</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7585281385281386</v>
+        <v>0.8126829268292683</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3454787234042553</v>
+        <v>0.3274841437632136</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4032070707070707</v>
+        <v>0.4473203354948284</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6804779846335698</v>
+        <v>0.6855671370273858</v>
       </c>
     </row>
   </sheetData>
